--- a/SQL/Leetcode_SQL.xlsx
+++ b/SQL/Leetcode_SQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A-Projects\workspace\lc_myself\leetsql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AWS_LeetCode\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E1048-4163-4B3F-A27F-93561C846CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333412E-6414-4A7E-BC9B-8711DA4882F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178. 分数排名</t>
+  </si>
+  <si>
+    <t>180. 连续出现的数字</t>
+  </si>
+  <si>
+    <t>分组排序、偏移函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01.07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +446,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -482,14 +500,26 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/SQL/Leetcode_SQL.xlsx
+++ b/SQL/Leetcode_SQL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AWS_LeetCode\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333412E-6414-4A7E-BC9B-8711DA4882F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDCBFE9-737D-41AD-A8B1-A897AF622776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.01.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>175. 组合两个表</t>
   </si>
   <si>
@@ -74,7 +70,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.01.07</t>
+    <t>181. 超过经理收入的员工</t>
+  </si>
+  <si>
+    <t>182. 查找重复的电子邮箱</t>
+  </si>
+  <si>
+    <t>183. 从不订购的客户</t>
+  </si>
+  <si>
+    <t>2021.01.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +459,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -470,70 +483,82 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/SQL/Leetcode_SQL.xlsx
+++ b/SQL/Leetcode_SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AWS_LeetCode\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDCBFE9-737D-41AD-A8B1-A897AF622776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555D09FA-5A98-490F-8AF9-CE1B1100DAB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,17 @@
   </si>
   <si>
     <t>2021.01.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.11</t>
+  </si>
+  <si>
+    <t>184. 部门工资最高的员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取分组最大，窗口函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +470,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -562,9 +573,15 @@
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/SQL/Leetcode_SQL.xlsx
+++ b/SQL/Leetcode_SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AWS_LeetCode\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555D09FA-5A98-490F-8AF9-CE1B1100DAB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085AEDE-6082-4B3C-A882-A991E422953C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,7 +98,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取分组最大，窗口函数</t>
+    <t>2021.01.12</t>
+  </si>
+  <si>
+    <t>185. 部门工资前三高的所有员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取分组最大，排序函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组取前三，排序函数，JOIN(INNER/LEFT/RIGHT)语法辨析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +481,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -580,13 +591,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/SQL/Leetcode_SQL.xlsx
+++ b/SQL/Leetcode_SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AWS_LeetCode\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085AEDE-6082-4B3C-A882-A991E422953C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456D0A5-F3AE-4F1A-BEAF-57EC581DF590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,22 @@
   </si>
   <si>
     <t>分组取前三，排序函数，JOIN(INNER/LEFT/RIGHT)语法辨析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196. 删除重复的电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原表去重取最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>197. 上升的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原表比较比趋势，DATEDIFF()函数的使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +497,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -606,18 +622,30 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">

--- a/SQL/Leetcode_SQL.xlsx
+++ b/SQL/Leetcode_SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AWS_LeetCode\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456D0A5-F3AE-4F1A-BEAF-57EC581DF590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB7657-CF32-4984-BAFF-DD46096EA139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,28 @@
   </si>
   <si>
     <t>原表比较比趋势，DATEDIFF()函数的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.13</t>
+  </si>
+  <si>
+    <r>
+      <t>262. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行程和用户</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM,COUNT,ROUND函数的用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +174,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -197,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +246,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +534,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -644,9 +681,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
